--- a/AzentioAutomationFramework_CSM/TestData/CSMTestData.xlsx
+++ b/AzentioAutomationFramework_CSM/TestData/CSMTestData.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="12345" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CSM_Login" sheetId="1" r:id="rId1"/>
     <sheet name="CSMParam_login" sheetId="2" r:id="rId2"/>
     <sheet name="SadsLogin" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Stage</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>SYSADM</t>
+  </si>
+  <si>
+    <t>Razia</t>
   </si>
 </sst>
 </file>
@@ -471,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -506,10 +509,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>321</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -527,7 +530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
